--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_39.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2520616.955963289</v>
+        <v>2574038.695664617</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17338441.47276634</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484432</v>
+        <v>278692.072591686</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5090514.657236313</v>
+        <v>5158108.750154074</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>245.5365136137426</v>
       </c>
       <c r="D2" t="n">
-        <v>41.04912457156745</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -750,7 +750,7 @@
         <v>82.55</v>
       </c>
       <c r="G3" t="n">
-        <v>84.53123883647797</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
         <v>41.31829566194965</v>
@@ -829,13 +829,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>41.26176538196641</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>142.0902352657462</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -899,13 +899,13 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>284.2030815286304</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -962,7 +962,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>82.10933173605027</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -990,7 +990,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H6" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>34.06158462964408</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>85.95410268461914</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1139,13 +1139,13 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>318.3252443674957</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>214.5368897552624</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1199,7 +1199,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>163.293878347428</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1370,25 +1370,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112173</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>12.98173926693774</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="12">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>18.05677735225699</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1585,7 +1585,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>35.5167825707945</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1607,25 +1607,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T14" t="n">
-        <v>13.39436074606917</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="15">
@@ -1777,7 +1777,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170436</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1844,25 +1844,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791324367</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1901,13 +1901,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
-        <v>103.8284742946034</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2081,19 +2081,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629693</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800047</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2138,16 +2138,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="21">
@@ -2251,7 +2251,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800581</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2488,10 +2488,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225831</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2533,7 +2533,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>169.9259850434489</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2725,7 +2725,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>24.34318456170484</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800601</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3202,7 +3202,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
-        <v>122.9742767430566</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>419.2974898580657</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>431.0219631664179</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>428.8116020553069</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>426.6979124712947</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8496703728913</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>394.6447681409757</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>283.4997680892229</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.07627015600835</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>215.1274699336988</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>253.8909947341603</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>356.2516956435187</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>398.067815121084</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>412.2119538644894</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.4641775413501</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>187.1613476098042</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>168.0970094796143</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>161.4801279484995</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>165.3213387897771</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>172.2008985758683</v>
+        <v>54.49360828358933</v>
       </c>
       <c r="G37" t="n">
-        <v>78.68882068198408</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>154.9098700929903</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.6815670353363</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>272.9095858174327</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>281.3468681262808</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>266.5670554475784</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1987521979287</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4063890570398</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>419.2974898580657</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>431.0219631664179</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>428.8116020553069</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>426.6979124712947</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8496703728913</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>394.6447681409757</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>283.4997680892229</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.07627015600835</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>215.1274699336988</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U38" t="n">
-        <v>253.8909947341603</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>356.2516956435187</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>398.067815121084</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>412.2119538644894</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.4641775413501</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>187.1613476098042</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>168.0970094796143</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>161.4801279484995</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>165.3213387897771</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>172.2008985758683</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>78.6888206819844</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>154.9098700929903</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>240.6815670353363</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>272.9095858174327</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>281.3468681262808</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>266.5670554475784</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1987521979287</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4063890570398</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>419.2974898580657</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>431.0219631664179</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>428.8116020553069</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>426.6979124712947</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8496703728913</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>394.6447681409757</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>283.4997680892229</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>7.503569422951188</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>253.8909947341603</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>356.2516956435187</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>398.067815121084</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>412.2119538644894</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.4641775413501</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>187.1613476098042</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>168.0970094796143</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>161.4801279484995</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>165.3213387897771</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>172.2008985758683</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>161.1962773024376</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>135.7640676445362</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>85.0342648110784</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>92.28564805225781</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>272.9095858174327</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>281.3468681262808</v>
+        <v>93.15725658380842</v>
       </c>
       <c r="W43" t="n">
-        <v>266.5670554475784</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1987521979287</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4063890570398</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>419.2974898580657</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>431.0219631664179</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>428.8116020553069</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>426.6979124712947</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8496703728913</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>394.6447681409757</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>283.4997680892229</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>7.503569422950733</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>253.8909947341603</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>356.2516956435187</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>398.067815121084</v>
+        <v>400.8069000430772</v>
       </c>
       <c r="X44" t="n">
-        <v>412.2119538644894</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.4641775413501</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>187.1613476098042</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.0970094796143</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>161.4801279484995</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>165.3213387897771</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>89.69344195541441</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>161.1962773024376</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>154.9098700929903</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>240.6815670353363</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>272.9095858174327</v>
+        <v>187.4537730419684</v>
       </c>
       <c r="V46" t="n">
-        <v>281.3468681262808</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>266.5670554475784</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1987521979287</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4063890570398</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>846.6806259663152</v>
+        <v>367.3910961563706</v>
       </c>
       <c r="C2" t="n">
-        <v>418.0989517035836</v>
+        <v>119.3744157384487</v>
       </c>
       <c r="D2" t="n">
-        <v>376.6351895100811</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
-        <v>346.9008487087803</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4358,22 +4358,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>813.0384456815061</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111166</v>
+        <v>797.9363863012209</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.939792410819</v>
+        <v>389.6502626008743</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4410,19 +4410,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>718.8484307043673</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C4" t="n">
-        <v>546.2867191875922</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D4" t="n">
-        <v>380.4087263891149</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>210.6507226398521</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>1292.259348259376</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U4" t="n">
-        <v>1655.504879189542</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="V4" t="n">
-        <v>1655.504879189542</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="W4" t="n">
-        <v>1383.478474775834</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="X4" t="n">
-        <v>1138.086720109246</v>
+        <v>1532.240118618369</v>
       </c>
       <c r="Y4" t="n">
-        <v>910.6670494233545</v>
+        <v>1304.820447932477</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>550.1887779922017</v>
+        <v>1233.250449524036</v>
       </c>
       <c r="C5" t="n">
-        <v>516.086709216029</v>
+        <v>1199.148380747863</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>912.0745610219742</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>478.2998161802693</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762201</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2301.552102346891</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>2042.329799663908</v>
       </c>
       <c r="V5" t="n">
-        <v>1075.344177331261</v>
+        <v>1679.712849597734</v>
       </c>
       <c r="W5" t="n">
-        <v>1074.529126782698</v>
+        <v>1678.897799049172</v>
       </c>
       <c r="X5" t="n">
-        <v>655.3866633620088</v>
+        <v>1259.755335628482</v>
       </c>
       <c r="Y5" t="n">
-        <v>572.4479444367055</v>
+        <v>1255.50961596854</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539589</v>
+        <v>92.16803877326458</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>1224.671464618085</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1224.671464618085</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1224.671464618085</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1224.671464618085</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1224.671464618085</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>433.2298803720686</v>
+        <v>593.0357356940367</v>
       </c>
       <c r="C7" t="n">
-        <v>260.6681688552936</v>
+        <v>420.4740241772616</v>
       </c>
       <c r="D7" t="n">
-        <v>260.6681688552936</v>
+        <v>254.5960313787843</v>
       </c>
       <c r="E7" t="n">
-        <v>260.6681688552936</v>
+        <v>84.83802762952158</v>
       </c>
       <c r="F7" t="n">
-        <v>260.6681688552936</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="G7" t="n">
-        <v>260.6681688552936</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="H7" t="n">
-        <v>120.7659945456681</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>1233.544589050298</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1528.990655216085</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2340.960139477221</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2095.080693055676</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1816.647692308781</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1529.692184179212</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2298803720686</v>
+        <v>1257.665779765503</v>
       </c>
       <c r="X7" t="n">
-        <v>433.2298803720686</v>
+        <v>1012.274025098916</v>
       </c>
       <c r="Y7" t="n">
-        <v>433.2298803720686</v>
+        <v>784.8543544130239</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>846.680625966315</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C8" t="n">
-        <v>812.5785571901424</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>780.709176404991</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>459.1685255287327</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>435.3414999783445</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1277.130531135514</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P8" t="n">
-        <v>1277.130531135514</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q8" t="n">
-        <v>1697.183430080417</v>
+        <v>2582.420166112558</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2453.356897385708</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2194.134594702725</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1831.517644636552</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>1426.662190047585</v>
       </c>
       <c r="X8" t="n">
-        <v>873.1855120707613</v>
+        <v>1007.519726626896</v>
       </c>
       <c r="Y8" t="n">
-        <v>868.9397924108188</v>
+        <v>599.2336029265493</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1224.671464618085</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1224.671464618085</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1224.671464618085</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1224.671464618085</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1224.671464618085</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>308.7021231727439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1532.240118618369</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1532.240118618369</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1304.820447932477</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2522.969308202876</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.8268353863</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.917050560744</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.142305719039</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>787.2748761282468</v>
+        <v>793.205615577161</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8770447515107</v>
+        <v>391.8077842004248</v>
       </c>
       <c r="H11" t="n">
-        <v>96.7468901947269</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I11" t="n">
-        <v>96.33010082186691</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J11" t="n">
-        <v>531.5847882747847</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K11" t="n">
-        <v>1365.935080232963</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L11" t="n">
-        <v>2440.995046485822</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M11" t="n">
-        <v>2440.995046485822</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N11" t="n">
-        <v>2440.995046485822</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O11" t="n">
-        <v>3421.174713056128</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P11" t="n">
-        <v>4249.484587889524</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q11" t="n">
-        <v>4795.983373848119</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R11" t="n">
-        <v>4816.505041093345</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S11" t="n">
-        <v>4803.392173146944</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T11" t="n">
-        <v>4803.392173146944</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.16987046396</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.552920397787</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W11" t="n">
-        <v>3776.69746580882</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.555002388131</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.268878687784</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.5018458131597</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.045384649802</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>400.9550957963552</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>306.8346811233089</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.4508427394705</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.0657530056544</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H12" t="n">
-        <v>96.33010082186691</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I12" t="n">
-        <v>122.3937739823245</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>446.9520989485368</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.397084206336</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.569862300676</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.114424749059</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1565.935781079661</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1389.599234079629</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.481716141628</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.158961874822</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.291526113702</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>723.8057468929228</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>965.065306941482</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C13" t="n">
-        <v>792.503595424707</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D13" t="n">
-        <v>626.6256026262297</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E13" t="n">
-        <v>456.8675988769669</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F13" t="n">
-        <v>280.1605448387231</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G13" t="n">
-        <v>114.5692698645507</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H13" t="n">
-        <v>114.5692698645507</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>96.33010082186691</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J13" t="n">
-        <v>182.9097859865568</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>457.6682405576923</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L13" t="n">
-        <v>875.8781223256534</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.361989506566</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1777.620792664211</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.290041889992</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2544.796935860334</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2712.989710724667</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2712.989710724667</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2467.110264303121</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2188.677263556227</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>1901.721755426657</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W13" t="n">
-        <v>1629.695351012949</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X13" t="n">
-        <v>1384.303596346361</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y13" t="n">
-        <v>1156.883925660469</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.552518830015</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.410046013439</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.500261187883</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1214.725516346179</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>786.8580867553867</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>385.4602553786506</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H14" t="n">
-        <v>96.33010082186691</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I14" t="n">
-        <v>96.33010082186691</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J14" t="n">
-        <v>96.33010082186691</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K14" t="n">
-        <v>96.33010082186691</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L14" t="n">
-        <v>178.7378950840507</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M14" t="n">
-        <v>1335.785730294602</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N14" t="n">
-        <v>2461.516713731049</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O14" t="n">
-        <v>3441.696380301355</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P14" t="n">
-        <v>4270.006255134751</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q14" t="n">
-        <v>4816.505041093345</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R14" t="n">
-        <v>4816.505041093345</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S14" t="n">
-        <v>4816.505041093345</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T14" t="n">
-        <v>4802.975383774083</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U14" t="n">
-        <v>4543.753081091099</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.136131024926</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W14" t="n">
-        <v>3776.280676435959</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.13821301527</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y14" t="n">
-        <v>2948.852089314923</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.5018458131597</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.045384649802</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>400.9550957963552</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>306.8346811233089</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.4508427394705</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.0657530056544</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H15" t="n">
-        <v>96.33010082186691</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I15" t="n">
-        <v>122.3937739823245</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>446.9520989485368</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.397084206336</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.569862300676</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.114424749059</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1565.935781079661</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.599234079629</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.481716141628</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.158961874822</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.291526113702</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>723.8057468929228</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>946.8261378987982</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C16" t="n">
-        <v>774.2644263820231</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D16" t="n">
-        <v>608.3864335835458</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E16" t="n">
-        <v>438.628429834283</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F16" t="n">
-        <v>261.9213757960392</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G16" t="n">
-        <v>96.33010082186691</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H16" t="n">
-        <v>96.33010082186691</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I16" t="n">
-        <v>96.33010082186691</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J16" t="n">
-        <v>182.9097859865568</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>457.6682405576923</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L16" t="n">
-        <v>875.8781223256534</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.361989506566</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1777.620792664211</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.290041889992</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2544.796935860334</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2694.750541681982</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2448.871095260437</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.438094513543</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.482586383973</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.456181970265</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.064427303677</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.644756617785</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436407</v>
       </c>
       <c r="I17" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U17" t="n">
         <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="18">
@@ -5583,10 +5583,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H18" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I18" t="n">
         <v>128.3245134312372</v>
@@ -5662,22 +5662,22 @@
         <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I19" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J19" t="n">
-        <v>188.8405254354693</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.5989800066049</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L19" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
         <v>1341.292728955479</v>
@@ -5698,7 +5698,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
         <v>2454.80183470935</v>
@@ -5707,7 +5707,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
         <v>1617.386921419177</v>
@@ -5729,7 +5729,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5738,10 +5738,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771601</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5759,43 +5759,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716165</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731392</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>303.5569696238765</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>126.8499155856327</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>927.0677766831641</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>754.506065166389</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1863.724225168339</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1591.697820754631</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1346.306066088043</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1118.886395402151</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883919</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716168</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731395</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>303.5569696238768</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>126.849915585633</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6449,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6686,64 +6686,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2594.704009018975</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2511.083736995627</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2075.708016625508</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1642.56498424641</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E35" t="n">
-        <v>1211.556991851163</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F35" t="n">
-        <v>786.4563147068278</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>387.8252357765493</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>101.4618336662232</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>536.716521119141</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.066813077319</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.126779330178</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.126779330178</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2548.949291195804</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3529.12895776611</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4357.438832599506</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4903.937618558101</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5073.091683311158</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>4992.206561941452</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4774.906087260949</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4518.450537024423</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4158.600339404707</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3756.511637262198</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
-        <v>3340.135926287966</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2934.616555034077</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>607.633578657516</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.1771174941582</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>406.0868286407115</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>311.9664139676652</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>228.5825755838268</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.1974858500107</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>127.5255068266808</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>452.0838317928931</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1647.528817050692</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1764.701595145032</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1701.246157593415</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.067513924017</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1394.730966923985</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1195.613448985984</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1010.290694719178</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>855.4232589580583</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>728.9374797372791</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>854.7832432376812</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>684.9882841673636</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>521.8770438153439</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>354.8857925125387</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>180.9454909207526</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>101.4618336662232</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>190.7532129036861</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>468.2233615475948</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>889.1449373883289</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1351.340498642015</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1796.310995872433</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2218.691939170988</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2568.910527214102</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2739.814996151208</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2739.814996151208</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2583.340379895662</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2340.227685920575</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2064.561437620138</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1780.372681937026</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1511.113029969775</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1268.488027749645</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1043.835109510211</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2511.083736995627</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2075.708016625508</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1642.56498424641</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1211.556991851162</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>786.4563147068277</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>387.8252357765492</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
-        <v>101.4618336662232</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>536.716521119141</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.066813077319</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.126779330178</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.126779330178</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2548.949291195804</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3529.12895776611</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4357.438832599506</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4903.937618558101</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5073.091683311158</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>4992.206561941452</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4774.906087260949</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4518.450537024422</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4158.600339404707</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3756.511637262198</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3340.135926287966</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2934.616555034077</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>607.633578657516</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.1771174941582</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.0868286407115</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>311.9664139676652</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>228.5825755838268</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.1974858500107</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>127.5255068266808</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>452.0838317928931</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1647.528817050692</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1764.701595145032</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.246157593415</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.067513924017</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1394.730966923985</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1195.613448985984</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.290694719178</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>855.4232589580583</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>728.9374797372791</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>854.7832432376815</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>684.988284167364</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>521.8770438153442</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>354.8857925125391</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>180.9454909207529</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>190.7532129036861</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>468.2233615475948</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>889.1449373883289</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1351.340498642015</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1796.310995872433</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2218.691939170988</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2568.910527214102</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2739.814996151208</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2739.814996151208</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2583.340379895662</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2340.227685920575</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2064.561437620138</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1780.372681937026</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1511.113029969775</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1268.488027749645</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1043.835109510211</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2505.152997546714</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2069.777277176595</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1636.634244797497</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1205.62625240225</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>780.5255752579151</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>381.8944963276366</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>95.53109421731044</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>95.53109421731044</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>530.7857816702283</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1365.136073628406</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2440.196039881266</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2440.196039881266</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2440.196039881266</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3420.375706451572</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4248.685581284968</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4776.554710865522</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>4776.554710865522</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>4776.554710865522</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4768.975347812035</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4512.519797575509</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4152.669599955793</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3750.580897813285</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3334.205186839053</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2928.685815585164</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>601.7028392086032</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>495.2463780452455</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>400.1560891917988</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>306.0356745187525</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>222.6518361349141</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>137.266746401098</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>95.53109421731044</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>121.5947673777681</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>446.1530923439804</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1641.59807760178</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1758.770855696119</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1695.315418144502</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1565.136774475104</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1388.800227475072</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1189.682709537072</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1004.359955270266</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>849.4925195091456</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>723.0067402883664</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1155.221987703989</v>
+        <v>1004.611946844417</v>
       </c>
       <c r="C43" t="n">
-        <v>985.4270286336714</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D43" t="n">
-        <v>822.3157882816516</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E43" t="n">
-        <v>655.3245369788465</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F43" t="n">
-        <v>481.3842353870602</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>318.5597128593454</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H43" t="n">
-        <v>181.4242909961775</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>95.53109421731044</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>184.8224734547734</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>462.2926220986815</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>883.2141979394153</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1345.409759193101</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1790.380256423519</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2212.761199722074</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2562.979787765189</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2733.884256702294</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2733.884256702294</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2733.884256702294</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2640.666430386882</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2365.000182086445</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>2080.811426403334</v>
+        <v>1941.268395329592</v>
       </c>
       <c r="W43" t="n">
-        <v>1811.551774436083</v>
+        <v>1669.241990915884</v>
       </c>
       <c r="X43" t="n">
-        <v>1568.926772215952</v>
+        <v>1423.850236249296</v>
       </c>
       <c r="Y43" t="n">
-        <v>1344.273853976518</v>
+        <v>1196.430565563404</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2505.152997546714</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2069.777277176595</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1636.634244797497</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1205.62625240225</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>780.5255752579151</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>381.8944963276366</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>95.53109421731044</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>95.53109421731044</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>530.7857816702283</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1365.136073628406</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2440.196039881266</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2440.196039881266</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2440.196039881266</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3420.375706451572</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4248.685581284968</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4776.554710865522</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>4776.554710865522</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>4776.554710865522</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4768.975347812036</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4512.51979757551</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4152.669599955794</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3750.580897813285</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>3334.205186839053</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2928.685815585164</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>601.7028392086032</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>495.2463780452455</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>400.1560891917988</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>306.0356745187525</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>222.6518361349141</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>137.266746401098</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>95.53109421731044</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>121.5947673777681</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>446.1530923439804</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1641.59807760178</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1758.770855696119</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1695.315418144502</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1565.136774475104</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1388.800227475072</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1189.682709537072</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1004.359955270266</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>849.4925195091456</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>723.0067402883664</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>848.8525037887675</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C46" t="n">
-        <v>679.0575447184501</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D46" t="n">
-        <v>515.9463043664305</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E46" t="n">
-        <v>348.9550530636252</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F46" t="n">
-        <v>258.3556167450252</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G46" t="n">
-        <v>95.53109421731044</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>95.53109421731044</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>95.53109421731044</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>184.8224734547734</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>462.292622098682</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>883.2141979394162</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1345.409759193102</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1790.38025642352</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2212.761199722074</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2562.979787765189</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2733.884256702294</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2733.884256702294</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2577.409640446748</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2334.296946471661</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2058.630698171224</v>
+        <v>2124.452389553093</v>
       </c>
       <c r="V46" t="n">
-        <v>1774.441942488112</v>
+        <v>1837.496881423524</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.182290520861</v>
+        <v>1565.470477009816</v>
       </c>
       <c r="X46" t="n">
-        <v>1262.557288300731</v>
+        <v>1320.078722343228</v>
       </c>
       <c r="Y46" t="n">
-        <v>1037.904370061297</v>
+        <v>1092.659051657336</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,10 +8070,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>358.9284720888816</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>298.4303698644312</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238361</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,10 +8453,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>358.9284720888816</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>130.0063230223085</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>20.72895681336013</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>83.24019622442809</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352447</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>103.8611230965917</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>103.8611230965917</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11078,10 +11078,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>533.201140990458</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11315,10 +11315,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>533.201140990458</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>69.83361581106362</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>69.71657238081443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>248.5691704774793</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800143</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>204.4721941096226</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.592177662725</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>114.1599680048249</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,10 +25123,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
-        <v>120.4463752142727</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="G37" t="n">
-        <v>82.50745662045351</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>135.7640676445362</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>85.0342648110784</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.46455815968883</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>82.50745662045321</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>135.7640676445362</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>85.0342648110784</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.46455815968883</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25676,10 +25676,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.07627015600835</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>207.6239005107476</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,19 +25831,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>18.46455815968883</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>154.9098700929903</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>148.3959189830785</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>190.9286964644654</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.07627015600835</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>207.623900510748</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>82.50745662045392</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>135.7640676445362</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>85.0342648110784</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>18.46455815968883</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>88.19489769745726</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>433910.6127011201</v>
+        <v>440251.7739127577</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>433910.6127011201</v>
+        <v>441393.5139357205</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>429130.5800696809</v>
+        <v>448631.2472455782</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>429130.5800696809</v>
+        <v>448631.2472455782</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>448631.2472455782</v>
+        <v>448631.2472455781</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>448631.2472455781</v>
+        <v>448631.2472455782</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>449609.7696501259</v>
+        <v>448631.2472455781</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>449609.7696501259</v>
+        <v>448631.2472455782</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>430109.1024742286</v>
+        <v>448631.2472455782</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>430109.1024742286</v>
+        <v>448631.2472455782</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>522743.6368931484</v>
+      </c>
+      <c r="C2" t="n">
+        <v>522743.6368931483</v>
+      </c>
+      <c r="D2" t="n">
         <v>522743.6368931482</v>
       </c>
-      <c r="C2" t="n">
-        <v>522743.6368931482</v>
-      </c>
-      <c r="D2" t="n">
-        <v>522743.6368931484</v>
-      </c>
       <c r="E2" t="n">
-        <v>491357.7342884715</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="F2" t="n">
-        <v>491357.7342884716</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="G2" t="n">
-        <v>513686.1445339185</v>
+        <v>513686.1445339184</v>
       </c>
       <c r="H2" t="n">
-        <v>513686.1445339183</v>
+        <v>513686.1445339184</v>
       </c>
       <c r="I2" t="n">
         <v>513686.1445339185</v>
       </c>
       <c r="J2" t="n">
-        <v>513686.1445339186</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="K2" t="n">
-        <v>513686.1445339186</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="L2" t="n">
         <v>513686.1445339185</v>
       </c>
       <c r="M2" t="n">
-        <v>515214.2107678312</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="N2" t="n">
-        <v>515214.2107678317</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="O2" t="n">
-        <v>492885.8005223847</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="P2" t="n">
-        <v>492885.8005223845</v>
+        <v>513686.1445339185</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.767895016</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998293</v>
       </c>
       <c r="E3" t="n">
-        <v>232840.2019932545</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>20319.08402319052</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877238</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622443</v>
       </c>
       <c r="M3" t="n">
-        <v>194039.1781017872</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,25 +26418,25 @@
         <v>187564.5330558133</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>146735.1647947852</v>
       </c>
       <c r="D4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>39335.45940949833</v>
+        <v>41122.95192991262</v>
       </c>
       <c r="F4" t="n">
-        <v>39335.45940949833</v>
+        <v>41122.95192991268</v>
       </c>
       <c r="G4" t="n">
+        <v>41122.95192991263</v>
+      </c>
+      <c r="H4" t="n">
+        <v>41122.95192991266</v>
+      </c>
+      <c r="I4" t="n">
         <v>41122.95192991271</v>
-      </c>
-      <c r="H4" t="n">
-        <v>41122.95192991271</v>
-      </c>
-      <c r="I4" t="n">
-        <v>41122.95192991274</v>
       </c>
       <c r="J4" t="n">
         <v>41122.95192991271</v>
@@ -26445,19 +26445,19 @@
         <v>41122.95192991271</v>
       </c>
       <c r="L4" t="n">
-        <v>41122.95192991266</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
-        <v>43544.40790107934</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="N4" t="n">
-        <v>43544.40790107934</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="O4" t="n">
-        <v>41756.91538066496</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="P4" t="n">
-        <v>41756.91538066496</v>
+        <v>41122.95192991271</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800256</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73210.87662461885</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="F5" t="n">
-        <v>73210.87662461885</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77341.26571663663</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77341.26571663663</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>72833.90373546295</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>72833.90373546295</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133563.0150404027</v>
+        <v>133563.0150404028</v>
       </c>
       <c r="C6" t="n">
-        <v>275754.3157001127</v>
+        <v>237464.4903953445</v>
       </c>
       <c r="D6" t="n">
-        <v>275754.3157001128</v>
+        <v>297619.7695425032</v>
       </c>
       <c r="E6" t="n">
-        <v>145971.1962610998</v>
+        <v>212466.6204377809</v>
       </c>
       <c r="F6" t="n">
-        <v>378811.3982543545</v>
+        <v>394821.7296588306</v>
       </c>
       <c r="G6" t="n">
-        <v>374525.8699750228</v>
+        <v>394821.7296588306</v>
       </c>
       <c r="H6" t="n">
-        <v>394844.9539982131</v>
+        <v>394821.7296588306</v>
       </c>
       <c r="I6" t="n">
-        <v>394844.9539982133</v>
+        <v>394821.7296588306</v>
       </c>
       <c r="J6" t="n">
-        <v>283830.4886532231</v>
+        <v>283807.2643138404</v>
       </c>
       <c r="K6" t="n">
-        <v>394844.9539982133</v>
+        <v>341775.8750200582</v>
       </c>
       <c r="L6" t="n">
-        <v>394844.9539982133</v>
+        <v>385429.4279322082</v>
       </c>
       <c r="M6" t="n">
-        <v>200289.359048328</v>
+        <v>242621.558720843</v>
       </c>
       <c r="N6" t="n">
-        <v>394328.5371501158</v>
+        <v>394821.7296588306</v>
       </c>
       <c r="O6" t="n">
-        <v>378294.9814062568</v>
+        <v>394821.7296588306</v>
       </c>
       <c r="P6" t="n">
-        <v>378294.9814062566</v>
+        <v>394821.7296588306</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1204.126260273336</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="F4" t="n">
-        <v>1204.126260273336</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1268.272920827789</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1268.272920827789</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1194.13867771638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1194.13867771638</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27012,19 +27012,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939391</v>
       </c>
       <c r="E4" t="n">
-        <v>779.830402753232</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>74.13424311140892</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939391</v>
       </c>
       <c r="M4" t="n">
-        <v>769.8428201962761</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27258,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939391</v>
       </c>
       <c r="M4" t="n">
-        <v>779.830402753232</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>74.13424311140892</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>188.2245344746683</v>
       </c>
       <c r="D2" t="n">
-        <v>390.5015624057324</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27430,19 +27430,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>400</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -27591,16 +27591,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>234.3869053574593</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>100.8476018541754</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,13 +27619,13 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>147.3476054486695</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27667,7 +27667,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>322.0939307272928</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>140.8783988682173</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>1.819247048452269</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27859,13 +27859,13 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>111.111753025792</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27904,13 +27904,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>3.329665100429338</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>106.0122620221433</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-1.039137308914149e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,22 +28612,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28798,22 +28798,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>2.739084921993008</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="X44" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.739084921993008</v>
+        <v>7.54122690220053e-13</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.739084921993008</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,10 +34790,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>358.9284720888816</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,19 +35100,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>298.4303698644312</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238361</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>358.9284720888816</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>130.0063230223085</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -35416,7 +35416,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>20.72895681336013</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908064</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>83.24019622442809</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908064</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352447</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K18" t="n">
         <v>661.3192390158824</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908054</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37315,7 +37315,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>103.8611230965917</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>90.19331236107369</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
-        <v>280.2728774180896</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>425.1733089300345</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>466.8642032865517</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>449.4651487175936</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>426.6474174732878</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>353.7561495384998</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>172.6307767041467</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>103.8611230965917</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>90.19331236107369</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
-        <v>280.2728774180896</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>425.1733089300345</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>466.8642032865517</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>449.4651487175936</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>426.6474174732878</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>353.7561495384998</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>172.6307767041467</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,19 +37789,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>533.201140990458</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>90.19331236107369</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
-        <v>280.272877418089</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>425.1733089300342</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>466.8642032865516</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>449.4651487175936</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>426.6474174732875</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>353.7561495384998</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>172.6307767041471</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38026,19 +38026,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>533.201140990458</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>90.19331236107369</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
-        <v>280.2728774180895</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>425.1733089300346</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>466.8642032865516</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>449.4651487175936</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>426.6474174732871</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>353.7561495384998</v>
+        <v>351.0170646165075</v>
       </c>
       <c r="Q46" t="n">
-        <v>172.6307767041467</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
